--- a/Configuration/User Credentilas.xlsx
+++ b/Configuration/User Credentilas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12210" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>siddhant</t>
   </si>
@@ -39,40 +40,13 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>hanuman nagar</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
-  <si>
-    <t>siddhantw</t>
-  </si>
-  <si>
-    <t>ddgff</t>
-  </si>
-  <si>
-    <t>siddhantvs88@gmail.com</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>31pusgpaha</t>
+  </si>
+  <si>
+    <t>confirm password</t>
   </si>
 </sst>
 </file>
@@ -138,10 +112,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -439,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,14 +425,11 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,17 +448,8 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,54 +466,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2">
-        <v>441206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7034567688</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2">
-        <v>441207</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
